--- a/data/indices/NIFTY 100_stocks.xlsx
+++ b/data/indices/NIFTY 100_stocks.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4049.45</v>
+        <v>4011.9</v>
       </c>
       <c r="E2" t="n">
         <v>3840</v>
@@ -517,10 +517,10 @@
         <v>3399</v>
       </c>
       <c r="I2" t="n">
-        <v>26.17026901373785</v>
+        <v>26.85488208428672</v>
       </c>
       <c r="J2" t="n">
-        <v>-19.13651073845248</v>
+        <v>-18.03177405119153</v>
       </c>
     </row>
     <row r="3">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>257.31</v>
+        <v>258.65</v>
       </c>
       <c r="E3" t="n">
         <v>248.45</v>
@@ -555,694 +555,694 @@
         <v>204.5</v>
       </c>
       <c r="I3" t="n">
-        <v>25.41739130434783</v>
+        <v>25.02898550724638</v>
       </c>
       <c r="J3" t="n">
-        <v>-25.8239608801956</v>
+        <v>-26.47921760391197</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE121A01024</t>
+          <t>INE020B01018</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHOLAFIN</t>
+          <t>RECLTD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Non Banking Financial Company (NBFC)</t>
+          <t>Financial Institution</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1325.55</v>
+        <v>537.85</v>
       </c>
       <c r="E4" t="n">
-        <v>1279</v>
+        <v>522.05</v>
       </c>
       <c r="F4" t="n">
-        <v>1271.5</v>
+        <v>518.45</v>
       </c>
       <c r="G4" t="n">
-        <v>1652</v>
+        <v>654</v>
       </c>
       <c r="H4" t="n">
-        <v>1011.2</v>
+        <v>408.3</v>
       </c>
       <c r="I4" t="n">
-        <v>19.76089588377724</v>
+        <v>17.75993883792049</v>
       </c>
       <c r="J4" t="n">
-        <v>-31.08682753164556</v>
+        <v>-31.72912074455058</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE155A01022</t>
+          <t>INE121A01024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TATAMOTORS</t>
+          <t>CHOLAFIN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Passenger Cars &amp; Utility Vehicles</t>
+          <t>Non Banking Financial Company (NBFC)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>794.5</v>
+        <v>1315.9</v>
       </c>
       <c r="E5" t="n">
-        <v>768</v>
+        <v>1279</v>
       </c>
       <c r="F5" t="n">
-        <v>765.05</v>
+        <v>1271.5</v>
       </c>
       <c r="G5" t="n">
-        <v>1179</v>
+        <v>1652</v>
       </c>
       <c r="H5" t="n">
-        <v>717.7</v>
+        <v>1011.2</v>
       </c>
       <c r="I5" t="n">
-        <v>32.61238337574216</v>
+        <v>20.34503631961259</v>
       </c>
       <c r="J5" t="n">
-        <v>-10.7008499372997</v>
+        <v>-30.13251582278481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE205A01025</t>
+          <t>INE155A01022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>TATAMOTORS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Diversified Metals</t>
+          <t>Passenger Cars &amp; Utility Vehicles</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>464.65</v>
+        <v>789</v>
       </c>
       <c r="E6" t="n">
-        <v>450.5</v>
+        <v>768</v>
       </c>
       <c r="F6" t="n">
-        <v>449.75</v>
+        <v>765.05</v>
       </c>
       <c r="G6" t="n">
-        <v>526.95</v>
+        <v>1179</v>
       </c>
       <c r="H6" t="n">
-        <v>249.5</v>
+        <v>717.7</v>
       </c>
       <c r="I6" t="n">
-        <v>11.82275358193378</v>
+        <v>33.07888040712468</v>
       </c>
       <c r="J6" t="n">
-        <v>-86.2324649298597</v>
+        <v>-9.934513027727455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE020B01018</t>
+          <t>INE663F01024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RECLTD</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financial Institution</t>
+          <t>Internet &amp; Catalogue Retail</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>534.5</v>
+        <v>9085</v>
       </c>
       <c r="E7" t="n">
-        <v>522.05</v>
+        <v>8909</v>
       </c>
       <c r="F7" t="n">
-        <v>518.45</v>
+        <v>8878.950000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>654</v>
+        <v>9085</v>
       </c>
       <c r="H7" t="n">
-        <v>408.3</v>
+        <v>4862.2</v>
       </c>
       <c r="I7" t="n">
-        <v>18.27217125382263</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-30.90864560372275</v>
+        <v>-86.84957426679281</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE692A01016</t>
+          <t>INE670K01029</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UNIONBANK</t>
+          <t>LODHA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Residential Commercial Projects</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>124.59</v>
+        <v>1403.95</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6</v>
+        <v>1369.9</v>
       </c>
       <c r="F8" t="n">
-        <v>121.41</v>
+        <v>1372.9</v>
       </c>
       <c r="G8" t="n">
-        <v>172.5</v>
+        <v>1649.95</v>
       </c>
       <c r="H8" t="n">
-        <v>106.68</v>
+        <v>977.35</v>
       </c>
       <c r="I8" t="n">
-        <v>27.77391304347826</v>
+        <v>14.90954271341556</v>
       </c>
       <c r="J8" t="n">
-        <v>-16.78852643419572</v>
+        <v>-43.64864173530465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE931S01010</t>
+          <t>INE692A01016</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ADANIENSOL</t>
+          <t>UNIONBANK</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Power Distribution</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>827.4</v>
+        <v>124</v>
       </c>
       <c r="E9" t="n">
-        <v>810.85</v>
+        <v>122.6</v>
       </c>
       <c r="F9" t="n">
-        <v>809.05</v>
+        <v>121.41</v>
       </c>
       <c r="G9" t="n">
-        <v>1348</v>
+        <v>172.5</v>
       </c>
       <c r="H9" t="n">
-        <v>588</v>
+        <v>106.68</v>
       </c>
       <c r="I9" t="n">
-        <v>38.62017804154303</v>
+        <v>28.11594202898551</v>
       </c>
       <c r="J9" t="n">
-        <v>-40.71428571428571</v>
+        <v>-16.23547056617922</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE134E01011</t>
+          <t>INE726G01019</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PFC</t>
+          <t>ICICIPRULI</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financial Institution</t>
+          <t>Life Insurance</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>469.7</v>
+        <v>676.2</v>
       </c>
       <c r="E10" t="n">
-        <v>463.5</v>
+        <v>663.3</v>
       </c>
       <c r="F10" t="n">
-        <v>459.35</v>
+        <v>662.1</v>
       </c>
       <c r="G10" t="n">
-        <v>580</v>
+        <v>796.8</v>
       </c>
       <c r="H10" t="n">
-        <v>351.7</v>
+        <v>463.45</v>
       </c>
       <c r="I10" t="n">
-        <v>19.01724137931035</v>
+        <v>15.13554216867469</v>
       </c>
       <c r="J10" t="n">
-        <v>-33.55132214955928</v>
+        <v>-45.90570719602979</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE280A01028</t>
+          <t>INE016A01026</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TITAN</t>
+          <t>DABUR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gems Jewellery And Watches</t>
+          <t>Personal Care</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3463.15</v>
+        <v>524</v>
       </c>
       <c r="E11" t="n">
-        <v>3395</v>
+        <v>515</v>
       </c>
       <c r="F11" t="n">
-        <v>3388.95</v>
+        <v>513.35</v>
       </c>
       <c r="G11" t="n">
-        <v>3886.95</v>
+        <v>672</v>
       </c>
       <c r="H11" t="n">
-        <v>3055.65</v>
+        <v>489.2</v>
       </c>
       <c r="I11" t="n">
-        <v>10.90315028492776</v>
+        <v>22.02380952380953</v>
       </c>
       <c r="J11" t="n">
-        <v>-13.3359514342284</v>
+        <v>-7.113654946852005</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE095A01012</t>
+          <t>INE102D01028</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INDUSINDBK</t>
+          <t>GODREJCP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Personal Care</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1011.5</v>
+        <v>1115</v>
       </c>
       <c r="E12" t="n">
-        <v>993</v>
+        <v>1100</v>
       </c>
       <c r="F12" t="n">
-        <v>991.35</v>
+        <v>1093.45</v>
       </c>
       <c r="G12" t="n">
-        <v>1694.5</v>
+        <v>1541.85</v>
       </c>
       <c r="H12" t="n">
-        <v>926.45</v>
+        <v>1055.05</v>
       </c>
       <c r="I12" t="n">
-        <v>40.30687518442019</v>
+        <v>27.68427538346791</v>
       </c>
       <c r="J12" t="n">
-        <v>-9.180204004533429</v>
+        <v>-5.682195156627652</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE670K01029</t>
+          <t>INE123W01016</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LODHA</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Residential Commercial Projects</t>
+          <t>Life Insurance</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1398.3</v>
+        <v>1450</v>
       </c>
       <c r="E13" t="n">
-        <v>1369.9</v>
+        <v>1428.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1372.9</v>
+        <v>1422.25</v>
       </c>
       <c r="G13" t="n">
-        <v>1649.95</v>
+        <v>1936</v>
       </c>
       <c r="H13" t="n">
-        <v>977.35</v>
+        <v>1307.7</v>
       </c>
       <c r="I13" t="n">
-        <v>15.25197733264645</v>
+        <v>25.10330578512397</v>
       </c>
       <c r="J13" t="n">
-        <v>-43.07054791016523</v>
+        <v>-10.88170069587826</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE123W01016</t>
+          <t>INE280A01028</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Gems Jewellery And Watches</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1448.5</v>
+        <v>3450</v>
       </c>
       <c r="E14" t="n">
-        <v>1428.25</v>
+        <v>3395</v>
       </c>
       <c r="F14" t="n">
-        <v>1422.25</v>
+        <v>3388.95</v>
       </c>
       <c r="G14" t="n">
-        <v>1936</v>
+        <v>3886.95</v>
       </c>
       <c r="H14" t="n">
-        <v>1307.7</v>
+        <v>3055.65</v>
       </c>
       <c r="I14" t="n">
-        <v>25.18078512396694</v>
+        <v>11.24146181453324</v>
       </c>
       <c r="J14" t="n">
-        <v>-10.76699548826183</v>
+        <v>-12.90560109960237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE585B01010</t>
+          <t>INE205A01025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MARUTI</t>
+          <t>VEDL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Passenger Cars &amp; Utility Vehicles</t>
+          <t>Diversified Metals</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12032</v>
+        <v>457.35</v>
       </c>
       <c r="E15" t="n">
-        <v>11849.95</v>
+        <v>450.5</v>
       </c>
       <c r="F15" t="n">
-        <v>11841.3</v>
+        <v>449.75</v>
       </c>
       <c r="G15" t="n">
-        <v>13680</v>
+        <v>526.95</v>
       </c>
       <c r="H15" t="n">
-        <v>9737.65</v>
+        <v>249.5</v>
       </c>
       <c r="I15" t="n">
-        <v>12.04678362573099</v>
+        <v>13.20808425846855</v>
       </c>
       <c r="J15" t="n">
-        <v>-23.5616396153076</v>
+        <v>-83.30661322645292</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE733E01010</t>
+          <t>INE931S01010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NTPC</t>
+          <t>ADANIENSOL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Power Generation</t>
+          <t>Power Distribution</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>343.2</v>
+        <v>821</v>
       </c>
       <c r="E16" t="n">
-        <v>338.05</v>
+        <v>810.85</v>
       </c>
       <c r="F16" t="n">
-        <v>338</v>
+        <v>809.05</v>
       </c>
       <c r="G16" t="n">
-        <v>448.45</v>
+        <v>1348</v>
       </c>
       <c r="H16" t="n">
-        <v>296.55</v>
+        <v>588</v>
       </c>
       <c r="I16" t="n">
-        <v>23.4697290667856</v>
+        <v>39.09495548961424</v>
       </c>
       <c r="J16" t="n">
-        <v>-15.73090541224076</v>
+        <v>-39.62585034013605</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE726G01019</t>
+          <t>INE749A01030</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ICICIPRULI</t>
+          <t>JINDALSTEL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Iron &amp; Steel</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>671.85</v>
+        <v>955</v>
       </c>
       <c r="E17" t="n">
-        <v>663.3</v>
+        <v>940.5</v>
       </c>
       <c r="F17" t="n">
-        <v>662.1</v>
+        <v>941.7</v>
       </c>
       <c r="G17" t="n">
-        <v>796.8</v>
+        <v>1097</v>
       </c>
       <c r="H17" t="n">
-        <v>463.45</v>
+        <v>687.8</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68147590361445</v>
+        <v>12.94439380127621</v>
       </c>
       <c r="J17" t="n">
-        <v>-44.96709461646349</v>
+        <v>-38.84850247164874</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE296A01024</t>
+          <t>INE239A01024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>NESTLEIND</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Non Banking Financial Company (NBFC)</t>
+          <t>Packaged Foods</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7493.65</v>
+        <v>2231</v>
       </c>
       <c r="E18" t="n">
-        <v>7389.75</v>
+        <v>2200.2</v>
       </c>
       <c r="F18" t="n">
-        <v>7389.2</v>
+        <v>2200.2</v>
       </c>
       <c r="G18" t="n">
-        <v>7830</v>
+        <v>2778</v>
       </c>
       <c r="H18" t="n">
-        <v>6187.8</v>
+        <v>2145.4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.295657726692214</v>
+        <v>19.69042476601872</v>
       </c>
       <c r="J18" t="n">
-        <v>-21.10362325867028</v>
+        <v>-3.989931947422388</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE016A01026</t>
+          <t>INE030A01027</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Personal Care</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>520.6</v>
+        <v>2403</v>
       </c>
       <c r="E19" t="n">
-        <v>515</v>
+        <v>2381.85</v>
       </c>
       <c r="F19" t="n">
-        <v>513.35</v>
+        <v>2370</v>
       </c>
       <c r="G19" t="n">
-        <v>672</v>
+        <v>3035</v>
       </c>
       <c r="H19" t="n">
-        <v>489.2</v>
+        <v>2172.05</v>
       </c>
       <c r="I19" t="n">
-        <v>22.5297619047619</v>
+        <v>20.82372322899506</v>
       </c>
       <c r="J19" t="n">
-        <v>-6.418642681929689</v>
+        <v>-10.63281232015837</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE239A01024</t>
+          <t>INE134E01011</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NESTLEIND</t>
+          <t>PFC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Packaged Foods</t>
+          <t>Financial Institution</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2228.1</v>
+        <v>465</v>
       </c>
       <c r="E20" t="n">
-        <v>2200.2</v>
+        <v>463.5</v>
       </c>
       <c r="F20" t="n">
-        <v>2200.2</v>
+        <v>459.35</v>
       </c>
       <c r="G20" t="n">
-        <v>2778</v>
+        <v>580</v>
       </c>
       <c r="H20" t="n">
-        <v>2145.4</v>
+        <v>351.7</v>
       </c>
       <c r="I20" t="n">
-        <v>19.79481641468683</v>
+        <v>19.82758620689655</v>
       </c>
       <c r="J20" t="n">
-        <v>-3.854759019297092</v>
+        <v>-32.21495592834803</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE216A01030</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Refineries &amp; Marketing</t>
+          <t>Packaged Foods</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1257.5</v>
+        <v>4839.85</v>
       </c>
       <c r="E21" t="n">
-        <v>1243.9</v>
+        <v>4800</v>
       </c>
       <c r="F21" t="n">
-        <v>1241.8</v>
+        <v>4787.8</v>
       </c>
       <c r="G21" t="n">
-        <v>1608.8</v>
+        <v>6469.9</v>
       </c>
       <c r="H21" t="n">
-        <v>1201.5</v>
+        <v>4641</v>
       </c>
       <c r="I21" t="n">
-        <v>21.83615116857284</v>
+        <v>25.19436158209554</v>
       </c>
       <c r="J21" t="n">
-        <v>-4.660840615896796</v>
+        <v>-4.284636931695763</v>
       </c>
     </row>
     <row r="22">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>153.82</v>
+        <v>153.56</v>
       </c>
       <c r="E22" t="n">
         <v>153.4</v>
@@ -1277,390 +1277,390 @@
         <v>99</v>
       </c>
       <c r="I22" t="n">
-        <v>32.82969432314411</v>
+        <v>32.94323144104803</v>
       </c>
       <c r="J22" t="n">
-        <v>-55.37373737373736</v>
+        <v>-55.11111111111111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE749A01030</t>
+          <t>INE160A01022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>JINDALSTEL</t>
+          <t>PNB</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Iron &amp; Steel</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>952.55</v>
+        <v>106.53</v>
       </c>
       <c r="E23" t="n">
-        <v>940.5</v>
+        <v>105.45</v>
       </c>
       <c r="F23" t="n">
-        <v>941.7</v>
+        <v>105.48</v>
       </c>
       <c r="G23" t="n">
-        <v>1097</v>
+        <v>142.9</v>
       </c>
       <c r="H23" t="n">
-        <v>687.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>13.16773017319964</v>
+        <v>25.45136459062282</v>
       </c>
       <c r="J23" t="n">
-        <v>-38.49229427159058</v>
+        <v>-15.29220779220779</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE476A01022</t>
+          <t>INE758E01017</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CANBK</t>
+          <t>JIOFIN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Investment Company</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>102.26</v>
+        <v>307.15</v>
       </c>
       <c r="E24" t="n">
-        <v>101.51</v>
+        <v>306.7</v>
       </c>
       <c r="F24" t="n">
-        <v>101.1</v>
+        <v>304.7</v>
       </c>
       <c r="G24" t="n">
-        <v>128.9</v>
+        <v>394.7</v>
       </c>
       <c r="H24" t="n">
-        <v>88.3</v>
+        <v>233.55</v>
       </c>
       <c r="I24" t="n">
-        <v>20.66718386346005</v>
+        <v>22.18140359766912</v>
       </c>
       <c r="J24" t="n">
-        <v>-15.80973952434882</v>
+        <v>-31.51359451937485</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE028A01039</t>
+          <t>INE192A01025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Tea &amp; Coffee</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>243.75</v>
+        <v>936</v>
       </c>
       <c r="E25" t="n">
-        <v>242.5</v>
+        <v>932.7</v>
       </c>
       <c r="F25" t="n">
-        <v>241.12</v>
+        <v>929.65</v>
       </c>
       <c r="G25" t="n">
-        <v>299.7</v>
+        <v>1256.44</v>
       </c>
       <c r="H25" t="n">
-        <v>219.45</v>
+        <v>882.9</v>
       </c>
       <c r="I25" t="n">
-        <v>18.66866866866867</v>
+        <v>25.50380439973258</v>
       </c>
       <c r="J25" t="n">
-        <v>-11.07313738892687</v>
+        <v>-6.014271151885833</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE918I01026</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BAJAJFINSV</t>
+          <t>RELIANCE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Holding Company</t>
+          <t>Refineries &amp; Marketing</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1717.6</v>
+        <v>1249.85</v>
       </c>
       <c r="E26" t="n">
-        <v>1700</v>
+        <v>1243.9</v>
       </c>
       <c r="F26" t="n">
-        <v>1700.65</v>
+        <v>1241.8</v>
       </c>
       <c r="G26" t="n">
-        <v>2029.9</v>
+        <v>1608.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1419.05</v>
+        <v>1201.5</v>
       </c>
       <c r="I26" t="n">
-        <v>15.3849943346963</v>
+        <v>22.31166086524118</v>
       </c>
       <c r="J26" t="n">
-        <v>-21.03872308939079</v>
+        <v>-4.024136496046601</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE216A01030</t>
+          <t>INE0J1Y01017</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>LICI</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Packaged Foods</t>
+          <t>Life Insurance</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4835</v>
+        <v>908</v>
       </c>
       <c r="E27" t="n">
-        <v>4800</v>
+        <v>904</v>
       </c>
       <c r="F27" t="n">
-        <v>4787.8</v>
+        <v>902.35</v>
       </c>
       <c r="G27" t="n">
-        <v>6469.9</v>
+        <v>1222</v>
       </c>
       <c r="H27" t="n">
-        <v>4641</v>
+        <v>819.3</v>
       </c>
       <c r="I27" t="n">
-        <v>25.26932410083618</v>
+        <v>25.69558101472995</v>
       </c>
       <c r="J27" t="n">
-        <v>-4.180133591898298</v>
+        <v>-10.82631514707678</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INE019A01038</t>
+          <t>INE795G01014</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>JSWSTEEL</t>
+          <t>HDFCLIFE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Iron &amp; Steel</t>
+          <t>Life Insurance</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>921.4</v>
+        <v>624</v>
       </c>
       <c r="E28" t="n">
-        <v>914</v>
+        <v>619</v>
       </c>
       <c r="F28" t="n">
-        <v>912.5</v>
+        <v>620.15</v>
       </c>
       <c r="G28" t="n">
-        <v>1063</v>
+        <v>761.2</v>
       </c>
       <c r="H28" t="n">
-        <v>761.75</v>
+        <v>511.4</v>
       </c>
       <c r="I28" t="n">
-        <v>13.32079021636877</v>
+        <v>18.02417235943248</v>
       </c>
       <c r="J28" t="n">
-        <v>-20.95831965868067</v>
+        <v>-22.01798983183419</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INE663F01024</t>
+          <t>INE585B01010</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>MARUTI</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Internet &amp; Catalogue Retail</t>
+          <t>Passenger Cars &amp; Utility Vehicles</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>8965</v>
+        <v>11900</v>
       </c>
       <c r="E29" t="n">
-        <v>8909</v>
+        <v>11849.95</v>
       </c>
       <c r="F29" t="n">
-        <v>8878.950000000001</v>
+        <v>11841.3</v>
       </c>
       <c r="G29" t="n">
-        <v>9040</v>
+        <v>13680</v>
       </c>
       <c r="H29" t="n">
-        <v>4862.2</v>
+        <v>9737.65</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8296460176991151</v>
+        <v>13.01169590643275</v>
       </c>
       <c r="J29" t="n">
-        <v>-84.38155567438608</v>
+        <v>-22.20607641474073</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INE160A01022</t>
+          <t>INE095A01012</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>INDUSINDBK</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>106.47</v>
+        <v>996</v>
       </c>
       <c r="E30" t="n">
-        <v>105.45</v>
+        <v>993</v>
       </c>
       <c r="F30" t="n">
-        <v>105.48</v>
+        <v>991.35</v>
       </c>
       <c r="G30" t="n">
-        <v>142.9</v>
+        <v>1694.5</v>
       </c>
       <c r="H30" t="n">
-        <v>92.40000000000001</v>
+        <v>926.45</v>
       </c>
       <c r="I30" t="n">
-        <v>25.49335199440169</v>
+        <v>41.2215992918265</v>
       </c>
       <c r="J30" t="n">
-        <v>-15.22727272727272</v>
+        <v>-7.507150952560846</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INE849A01020</t>
+          <t>INE200M01039</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRENT</t>
+          <t>VBL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Speciality Retail</t>
+          <t>Other Beverages</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7388</v>
+        <v>651.7</v>
       </c>
       <c r="E31" t="n">
-        <v>7350</v>
+        <v>654</v>
       </c>
       <c r="F31" t="n">
-        <v>7321</v>
+        <v>648.7</v>
       </c>
       <c r="G31" t="n">
-        <v>8345</v>
+        <v>681.12</v>
       </c>
       <c r="H31" t="n">
-        <v>2955</v>
+        <v>478.56</v>
       </c>
       <c r="I31" t="n">
-        <v>11.46794487717196</v>
+        <v>4.319356354240069</v>
       </c>
       <c r="J31" t="n">
-        <v>-150.0169204737733</v>
+        <v>-36.17937144767637</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INE081A01020</t>
+          <t>INE733E01010</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>NTPC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Iron &amp; Steel</t>
+          <t>Power Generation</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>139.39</v>
+        <v>339.5</v>
       </c>
       <c r="E32" t="n">
-        <v>138.18</v>
+        <v>338.05</v>
       </c>
       <c r="F32" t="n">
-        <v>138.18</v>
+        <v>338</v>
       </c>
       <c r="G32" t="n">
-        <v>184.6</v>
+        <v>448.45</v>
       </c>
       <c r="H32" t="n">
-        <v>128.2</v>
+        <v>296.55</v>
       </c>
       <c r="I32" t="n">
-        <v>24.49079089924161</v>
+        <v>24.29479317649682</v>
       </c>
       <c r="J32" t="n">
-        <v>-8.728549141965678</v>
+        <v>-14.4832237396729</v>
       </c>
     </row>
     <row r="33">
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>398.85</v>
+        <v>396.8</v>
       </c>
       <c r="E33" t="n">
         <v>396</v>
@@ -1695,10 +1695,10 @@
         <v>324.85</v>
       </c>
       <c r="I33" t="n">
-        <v>19.39981812670506</v>
+        <v>19.81408507628575</v>
       </c>
       <c r="J33" t="n">
-        <v>-22.77974449746036</v>
+        <v>-22.14868400800369</v>
       </c>
     </row>
     <row r="34">
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>83.16</v>
+        <v>82.73</v>
       </c>
       <c r="E34" t="n">
         <v>83.40000000000001</v>
@@ -1733,1302 +1733,1302 @@
         <v>67</v>
       </c>
       <c r="I34" t="n">
-        <v>29.76351351351352</v>
+        <v>30.12668918918919</v>
       </c>
       <c r="J34" t="n">
-        <v>-24.11940298507462</v>
+        <v>-23.47761194029852</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INE335Y01020</t>
+          <t>INE522F01014</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>IRCTC</t>
+          <t>COALINDIA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tour Travel Related Services</t>
+          <t>Coal</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>800.6</v>
+        <v>394.1</v>
       </c>
       <c r="E35" t="n">
-        <v>791</v>
+        <v>393</v>
       </c>
       <c r="F35" t="n">
-        <v>794.5</v>
+        <v>392.95</v>
       </c>
       <c r="G35" t="n">
-        <v>1138.9</v>
+        <v>543.55</v>
       </c>
       <c r="H35" t="n">
-        <v>765.1</v>
+        <v>368</v>
       </c>
       <c r="I35" t="n">
-        <v>29.70410044780051</v>
+        <v>27.49517063747584</v>
       </c>
       <c r="J35" t="n">
-        <v>-4.639916350803817</v>
+        <v>-7.092391304347832</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INE066A01021</t>
+          <t>INE028A01039</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EICHERMOT</t>
+          <t>BANKBARODA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2/3 Wheelers</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5347.45</v>
+        <v>241.73</v>
       </c>
       <c r="E36" t="n">
-        <v>5325</v>
+        <v>242.5</v>
       </c>
       <c r="F36" t="n">
-        <v>5308.1</v>
+        <v>241.12</v>
       </c>
       <c r="G36" t="n">
-        <v>5385.7</v>
+        <v>299.7</v>
       </c>
       <c r="H36" t="n">
-        <v>3562.45</v>
+        <v>219.45</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7102140854485025</v>
+        <v>19.34267600934268</v>
       </c>
       <c r="J36" t="n">
-        <v>-50.10596639952842</v>
+        <v>-10.15265436318068</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INE775A01035</t>
+          <t>INE476A01022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>CANBK</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>160.83</v>
+        <v>101.35</v>
       </c>
       <c r="E37" t="n">
-        <v>161</v>
+        <v>101.51</v>
       </c>
       <c r="F37" t="n">
-        <v>159.77</v>
+        <v>101.1</v>
       </c>
       <c r="G37" t="n">
-        <v>216.99</v>
+        <v>128.9</v>
       </c>
       <c r="H37" t="n">
-        <v>101.35</v>
+        <v>88.3</v>
       </c>
       <c r="I37" t="n">
-        <v>25.88137702198258</v>
+        <v>21.37315748642359</v>
       </c>
       <c r="J37" t="n">
-        <v>-58.68771583621117</v>
+        <v>-14.77916194790487</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INE030A01027</t>
+          <t>INE752E01010</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Diversified FMCG</t>
+          <t>Power - Transmission</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2385.55</v>
+        <v>315.8</v>
       </c>
       <c r="E38" t="n">
-        <v>2381.85</v>
+        <v>316.35</v>
       </c>
       <c r="F38" t="n">
-        <v>2370</v>
+        <v>315.15</v>
       </c>
       <c r="G38" t="n">
-        <v>3035</v>
+        <v>366.25</v>
       </c>
       <c r="H38" t="n">
-        <v>2172.05</v>
+        <v>226.05</v>
       </c>
       <c r="I38" t="n">
-        <v>21.3986820428336</v>
+        <v>13.77474402730375</v>
       </c>
       <c r="J38" t="n">
-        <v>-9.829423816210491</v>
+        <v>-39.70360539703605</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>INE238A01034</t>
+          <t>INE318A01026</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AXISBANK</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1093.1</v>
+        <v>2932.3</v>
       </c>
       <c r="E39" t="n">
-        <v>1086</v>
+        <v>2936</v>
       </c>
       <c r="F39" t="n">
-        <v>1086.6</v>
+        <v>2926.65</v>
       </c>
       <c r="G39" t="n">
-        <v>1339.65</v>
+        <v>3415</v>
       </c>
       <c r="H39" t="n">
-        <v>995.7</v>
+        <v>2488.1</v>
       </c>
       <c r="I39" t="n">
-        <v>18.40406076213938</v>
+        <v>14.13469985358711</v>
       </c>
       <c r="J39" t="n">
-        <v>-9.782062870342457</v>
+        <v>-17.85298018568387</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>INE192A01025</t>
+          <t>INE765G01017</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>ICICIGI</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tea &amp; Coffee</t>
+          <t>General Insurance</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>935</v>
+        <v>1835</v>
       </c>
       <c r="E40" t="n">
-        <v>932.7</v>
+        <v>1842.5</v>
       </c>
       <c r="F40" t="n">
-        <v>929.65</v>
+        <v>1832.9</v>
       </c>
       <c r="G40" t="n">
-        <v>1256.44</v>
+        <v>2301.9</v>
       </c>
       <c r="H40" t="n">
-        <v>882.9</v>
+        <v>1353.5</v>
       </c>
       <c r="I40" t="n">
-        <v>25.58339435229697</v>
+        <v>20.28324427646727</v>
       </c>
       <c r="J40" t="n">
-        <v>-5.901008041680827</v>
+        <v>-35.57443664573329</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>INE364U01010</t>
+          <t>INE081A01020</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ADANIGREEN</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Power Generation</t>
+          <t>Iron &amp; Steel</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1052.5</v>
+        <v>138.33</v>
       </c>
       <c r="E41" t="n">
-        <v>1049.65</v>
+        <v>138.18</v>
       </c>
       <c r="F41" t="n">
-        <v>1046.5</v>
+        <v>138.18</v>
       </c>
       <c r="G41" t="n">
-        <v>2174.1</v>
+        <v>184.6</v>
       </c>
       <c r="H41" t="n">
-        <v>870.25</v>
+        <v>128.2</v>
       </c>
       <c r="I41" t="n">
-        <v>51.58916333195345</v>
+        <v>25.06500541711808</v>
       </c>
       <c r="J41" t="n">
-        <v>-20.94225797184717</v>
+        <v>-7.901716068642765</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>INE242A01010</t>
+          <t>INE335Y01020</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>IRCTC</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Refineries &amp; Marketing</t>
+          <t>Tour Travel Related Services</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>138.67</v>
+        <v>795.2</v>
       </c>
       <c r="E42" t="n">
-        <v>137.72</v>
+        <v>791</v>
       </c>
       <c r="F42" t="n">
-        <v>137.96</v>
+        <v>794.5</v>
       </c>
       <c r="G42" t="n">
-        <v>196.8</v>
+        <v>1138.9</v>
       </c>
       <c r="H42" t="n">
-        <v>128.5</v>
+        <v>765.1</v>
       </c>
       <c r="I42" t="n">
-        <v>29.53760162601627</v>
+        <v>30.17824216349109</v>
       </c>
       <c r="J42" t="n">
-        <v>-7.914396887159524</v>
+        <v>-3.934126258005493</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>INE721A01013</t>
+          <t>INE242A01010</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>IOC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Non Banking Financial Company (NBFC)</t>
+          <t>Refineries &amp; Marketing</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3074.45</v>
+        <v>138.05</v>
       </c>
       <c r="E43" t="n">
-        <v>3060</v>
+        <v>137.72</v>
       </c>
       <c r="F43" t="n">
-        <v>3060.05</v>
+        <v>137.96</v>
       </c>
       <c r="G43" t="n">
-        <v>3652.25</v>
+        <v>196.8</v>
       </c>
       <c r="H43" t="n">
-        <v>2029</v>
+        <v>128.5</v>
       </c>
       <c r="I43" t="n">
-        <v>15.82038469436649</v>
+        <v>29.85264227642276</v>
       </c>
       <c r="J43" t="n">
-        <v>-51.52538196155741</v>
+        <v>-7.431906614786001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>INE752E01010</t>
+          <t>INE019A01038</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>POWERGRID</t>
+          <t>JSWSTEEL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Power - Transmission</t>
+          <t>Iron &amp; Steel</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>316.45</v>
+        <v>913</v>
       </c>
       <c r="E44" t="n">
-        <v>316.35</v>
+        <v>914</v>
       </c>
       <c r="F44" t="n">
-        <v>315.15</v>
+        <v>912.5</v>
       </c>
       <c r="G44" t="n">
-        <v>366.25</v>
+        <v>1063</v>
       </c>
       <c r="H44" t="n">
-        <v>226.05</v>
+        <v>761.75</v>
       </c>
       <c r="I44" t="n">
-        <v>13.59726962457338</v>
+        <v>14.11100658513641</v>
       </c>
       <c r="J44" t="n">
-        <v>-39.99115239991151</v>
+        <v>-19.85559566787004</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>INE758E01017</t>
+          <t>INE066A01021</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>JIOFIN</t>
+          <t>EICHERMOT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Investment Company</t>
+          <t>2/3 Wheelers</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>305.95</v>
+        <v>5310</v>
       </c>
       <c r="E45" t="n">
-        <v>306.7</v>
+        <v>5325</v>
       </c>
       <c r="F45" t="n">
-        <v>304.7</v>
+        <v>5308.1</v>
       </c>
       <c r="G45" t="n">
-        <v>394.7</v>
+        <v>5385.7</v>
       </c>
       <c r="H45" t="n">
-        <v>233.55</v>
+        <v>3562.45</v>
       </c>
       <c r="I45" t="n">
-        <v>22.48543197365088</v>
+        <v>1.405574020090236</v>
       </c>
       <c r="J45" t="n">
-        <v>-30.9997859130807</v>
+        <v>-49.05472357506773</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>INE399L01023</t>
+          <t>INE129A01019</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ATGL</t>
+          <t>GAIL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LPG/CNG/PNG/LNG Supplier</t>
+          <t>Gas Transmission/Marketing</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>737.45</v>
+        <v>191</v>
       </c>
       <c r="E46" t="n">
-        <v>734.5</v>
+        <v>191.69</v>
       </c>
       <c r="F46" t="n">
-        <v>734.45</v>
+        <v>191.1</v>
       </c>
       <c r="G46" t="n">
-        <v>1190</v>
+        <v>246.3</v>
       </c>
       <c r="H46" t="n">
-        <v>545.75</v>
+        <v>155.75</v>
       </c>
       <c r="I46" t="n">
-        <v>38.02941176470588</v>
+        <v>22.45229395046691</v>
       </c>
       <c r="J46" t="n">
-        <v>-35.12597343105818</v>
+        <v>-22.63242375601926</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>INE814H01011</t>
+          <t>INE029A01011</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ADANIPOWER</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Integrated Power Utilities</t>
+          <t>Refineries &amp; Marketing</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>523.85</v>
+        <v>296.7</v>
       </c>
       <c r="E47" t="n">
-        <v>523</v>
+        <v>296</v>
       </c>
       <c r="F47" t="n">
-        <v>521.8</v>
+        <v>296.9</v>
       </c>
       <c r="G47" t="n">
-        <v>895.85</v>
+        <v>376</v>
       </c>
       <c r="H47" t="n">
-        <v>432</v>
+        <v>222.55</v>
       </c>
       <c r="I47" t="n">
-        <v>41.52480884076575</v>
+        <v>21.0904255319149</v>
       </c>
       <c r="J47" t="n">
-        <v>-21.26157407407408</v>
+        <v>-33.31835542574701</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>INE522F01014</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>COALINDIA</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Coal</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>394.45</v>
+        <v>1835.7</v>
       </c>
       <c r="E48" t="n">
-        <v>393</v>
+        <v>1851</v>
       </c>
       <c r="F48" t="n">
-        <v>392.95</v>
+        <v>1837.15</v>
       </c>
       <c r="G48" t="n">
-        <v>543.55</v>
+        <v>1942</v>
       </c>
       <c r="H48" t="n">
-        <v>368</v>
+        <v>1543.85</v>
       </c>
       <c r="I48" t="n">
-        <v>27.43077913715389</v>
+        <v>5.473738414006177</v>
       </c>
       <c r="J48" t="n">
-        <v>-7.187499999999997</v>
+        <v>-18.90403860478675</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INE795G01014</t>
+          <t>INE918I01026</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HDFCLIFE</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Holding Company</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>622.45</v>
+        <v>1698</v>
       </c>
       <c r="E49" t="n">
-        <v>619</v>
+        <v>1700</v>
       </c>
       <c r="F49" t="n">
-        <v>620.15</v>
+        <v>1700.65</v>
       </c>
       <c r="G49" t="n">
-        <v>761.2</v>
+        <v>2029.9</v>
       </c>
       <c r="H49" t="n">
-        <v>511.4</v>
+        <v>1419.05</v>
       </c>
       <c r="I49" t="n">
-        <v>18.22779821334735</v>
+        <v>16.35055914084438</v>
       </c>
       <c r="J49" t="n">
-        <v>-21.71490027375832</v>
+        <v>-19.65751735315881</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INE318A01026</t>
+          <t>INE721A01013</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>SHRIRAMFIN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Non Banking Financial Company (NBFC)</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2937</v>
+        <v>3055</v>
       </c>
       <c r="E50" t="n">
-        <v>2936</v>
+        <v>3060</v>
       </c>
       <c r="F50" t="n">
-        <v>2926.65</v>
+        <v>3060.05</v>
       </c>
       <c r="G50" t="n">
-        <v>3415</v>
+        <v>3652.25</v>
       </c>
       <c r="H50" t="n">
-        <v>2488.1</v>
+        <v>2029</v>
       </c>
       <c r="I50" t="n">
-        <v>13.99707174231332</v>
+        <v>16.35293312341707</v>
       </c>
       <c r="J50" t="n">
-        <v>-18.04187934568547</v>
+        <v>-50.56678166584524</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>INE0J1Y01017</t>
+          <t>INE775A01035</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>905.5</v>
+        <v>159.45</v>
       </c>
       <c r="E51" t="n">
-        <v>904</v>
+        <v>161</v>
       </c>
       <c r="F51" t="n">
-        <v>902.35</v>
+        <v>159.77</v>
       </c>
       <c r="G51" t="n">
-        <v>1222</v>
+        <v>216.99</v>
       </c>
       <c r="H51" t="n">
-        <v>819.3</v>
+        <v>101.35</v>
       </c>
       <c r="I51" t="n">
-        <v>25.90016366612111</v>
+        <v>26.51735103000139</v>
       </c>
       <c r="J51" t="n">
-        <v>-10.52117661418284</v>
+        <v>-57.32609768130241</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INE066F01020</t>
+          <t>INE296A01024</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Non Banking Financial Company (NBFC)</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4248</v>
+        <v>7367.9</v>
       </c>
       <c r="E52" t="n">
-        <v>4240</v>
+        <v>7389.75</v>
       </c>
       <c r="F52" t="n">
-        <v>4235.8</v>
+        <v>7389.2</v>
       </c>
       <c r="G52" t="n">
-        <v>5674.75</v>
+        <v>7830</v>
       </c>
       <c r="H52" t="n">
-        <v>2763</v>
+        <v>6187.8</v>
       </c>
       <c r="I52" t="n">
-        <v>25.14207674346888</v>
+        <v>5.90166028097063</v>
       </c>
       <c r="J52" t="n">
-        <v>-53.74592833876221</v>
+        <v>-19.07139855845372</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>INE021A01026</t>
+          <t>INE214T01019</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>LTIM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Paints</t>
+          <t>Computers - Software &amp; Consulting</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2348</v>
+        <v>5734.6</v>
       </c>
       <c r="E53" t="n">
-        <v>2344</v>
+        <v>5780</v>
       </c>
       <c r="F53" t="n">
-        <v>2343.25</v>
+        <v>5753.05</v>
       </c>
       <c r="G53" t="n">
-        <v>3401.25</v>
+        <v>6767.95</v>
       </c>
       <c r="H53" t="n">
-        <v>2256.5</v>
+        <v>4513.55</v>
       </c>
       <c r="I53" t="n">
-        <v>30.96655641308342</v>
+        <v>15.26828655649051</v>
       </c>
       <c r="J53" t="n">
-        <v>-4.054952359849324</v>
+        <v>-27.05298490102026</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>INE323A01026</t>
+          <t>INE079A01024</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>34451.9</v>
+        <v>548</v>
       </c>
       <c r="E54" t="n">
-        <v>34600.75</v>
+        <v>551.8</v>
       </c>
       <c r="F54" t="n">
-        <v>34428.65</v>
+        <v>549.85</v>
       </c>
       <c r="G54" t="n">
-        <v>39088.8</v>
+        <v>706.95</v>
       </c>
       <c r="H54" t="n">
-        <v>22133</v>
+        <v>453.05</v>
       </c>
       <c r="I54" t="n">
-        <v>11.86247723132969</v>
+        <v>22.48390975316501</v>
       </c>
       <c r="J54" t="n">
-        <v>-55.65851895359871</v>
+        <v>-20.95795166096457</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>INE176B01034</t>
+          <t>INE481G01011</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HAVELLS</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Consumer Electronics</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1702.2</v>
+        <v>11755</v>
       </c>
       <c r="E55" t="n">
-        <v>1715</v>
+        <v>11799</v>
       </c>
       <c r="F55" t="n">
-        <v>1701.4</v>
+        <v>11797.7</v>
       </c>
       <c r="G55" t="n">
-        <v>2106</v>
+        <v>12145.35</v>
       </c>
       <c r="H55" t="n">
-        <v>1280</v>
+        <v>9250</v>
       </c>
       <c r="I55" t="n">
-        <v>19.17378917378917</v>
+        <v>3.213987246147706</v>
       </c>
       <c r="J55" t="n">
-        <v>-32.98437500000001</v>
+        <v>-27.08108108108108</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>INE200M01039</t>
+          <t>INE021A01026</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>VBL</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Other Beverages</t>
+          <t>Paints</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>648.95</v>
+        <v>2333.8</v>
       </c>
       <c r="E56" t="n">
-        <v>654</v>
+        <v>2344</v>
       </c>
       <c r="F56" t="n">
-        <v>648.7</v>
+        <v>2343.25</v>
       </c>
       <c r="G56" t="n">
-        <v>681.12</v>
+        <v>3401.25</v>
       </c>
       <c r="H56" t="n">
-        <v>478.56</v>
+        <v>2256.5</v>
       </c>
       <c r="I56" t="n">
-        <v>4.723103124265909</v>
+        <v>31.3840499816244</v>
       </c>
       <c r="J56" t="n">
-        <v>-35.60473085924441</v>
+        <v>-3.425659206736104</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>INE102D01028</t>
+          <t>INE176B01034</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>HAVELLS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Personal Care</t>
+          <t>Consumer Electronics</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1093.5</v>
+        <v>1694.5</v>
       </c>
       <c r="E57" t="n">
-        <v>1100</v>
+        <v>1715</v>
       </c>
       <c r="F57" t="n">
-        <v>1093.45</v>
+        <v>1701.4</v>
       </c>
       <c r="G57" t="n">
-        <v>1541.85</v>
+        <v>2106</v>
       </c>
       <c r="H57" t="n">
-        <v>1055.05</v>
+        <v>1280</v>
       </c>
       <c r="I57" t="n">
-        <v>29.07870415410059</v>
+        <v>19.53941120607787</v>
       </c>
       <c r="J57" t="n">
-        <v>-3.644377043742007</v>
+        <v>-32.3828125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>INE257A01026</t>
+          <t>INE323A01026</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Heavy Electrical Equipment</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>232.63</v>
+        <v>34280</v>
       </c>
       <c r="E58" t="n">
-        <v>233</v>
+        <v>34600.75</v>
       </c>
       <c r="F58" t="n">
-        <v>232.74</v>
+        <v>34428.65</v>
       </c>
       <c r="G58" t="n">
-        <v>335.35</v>
+        <v>39088.8</v>
       </c>
       <c r="H58" t="n">
-        <v>191.85</v>
+        <v>22133</v>
       </c>
       <c r="I58" t="n">
-        <v>30.63068435962428</v>
+        <v>12.30224514438919</v>
       </c>
       <c r="J58" t="n">
-        <v>-21.25618973156111</v>
+        <v>-54.88185063028057</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>INE481G01011</t>
+          <t>INE238A01034</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ULTRACEMCO</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cement &amp; Cement Products</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>11785</v>
+        <v>1081.2</v>
       </c>
       <c r="E59" t="n">
-        <v>11799</v>
+        <v>1086</v>
       </c>
       <c r="F59" t="n">
-        <v>11797.7</v>
+        <v>1086.6</v>
       </c>
       <c r="G59" t="n">
-        <v>12145.35</v>
+        <v>1339.65</v>
       </c>
       <c r="H59" t="n">
-        <v>9250</v>
+        <v>995.7</v>
       </c>
       <c r="I59" t="n">
-        <v>2.966979131931153</v>
+        <v>19.29235248012541</v>
       </c>
       <c r="J59" t="n">
-        <v>-27.40540540540541</v>
+        <v>-8.586923772220548</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>INE129A01019</t>
+          <t>INE849A01020</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>TRENT</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Gas Transmission/Marketing</t>
+          <t>Speciality Retail</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>190.88</v>
+        <v>7284.45</v>
       </c>
       <c r="E60" t="n">
-        <v>191.69</v>
+        <v>7350</v>
       </c>
       <c r="F60" t="n">
-        <v>191.1</v>
+        <v>7321</v>
       </c>
       <c r="G60" t="n">
-        <v>246.3</v>
+        <v>8345</v>
       </c>
       <c r="H60" t="n">
-        <v>155.75</v>
+        <v>2955</v>
       </c>
       <c r="I60" t="n">
-        <v>22.5010150223305</v>
+        <v>12.70880766926303</v>
       </c>
       <c r="J60" t="n">
-        <v>-22.5553772070626</v>
+        <v>-146.5126903553299</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE854D01024</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>UNITDSPR</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Breweries &amp; Distilleries</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1834.35</v>
+        <v>1680</v>
       </c>
       <c r="E61" t="n">
-        <v>1851</v>
+        <v>1700</v>
       </c>
       <c r="F61" t="n">
-        <v>1837.15</v>
+        <v>1688.55</v>
       </c>
       <c r="G61" t="n">
-        <v>1942</v>
+        <v>1700</v>
       </c>
       <c r="H61" t="n">
-        <v>1543.85</v>
+        <v>1054.7</v>
       </c>
       <c r="I61" t="n">
-        <v>5.543254376931004</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="J61" t="n">
-        <v>-18.81659487644525</v>
+        <v>-59.28700104295059</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE814H01011</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>ADANIPOWER</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Integrated Power Utilities</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>799.5</v>
+        <v>519</v>
       </c>
       <c r="E62" t="n">
-        <v>801.2</v>
+        <v>523</v>
       </c>
       <c r="F62" t="n">
-        <v>801.2</v>
+        <v>521.8</v>
       </c>
       <c r="G62" t="n">
-        <v>912</v>
+        <v>895.85</v>
       </c>
       <c r="H62" t="n">
-        <v>600.65</v>
+        <v>432</v>
       </c>
       <c r="I62" t="n">
-        <v>12.33552631578947</v>
+        <v>42.06619411731874</v>
       </c>
       <c r="J62" t="n">
-        <v>-33.10580204778158</v>
+        <v>-20.13888888888889</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>INE101A01026</t>
+          <t>INE494B01023</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>TVSMOTOR</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Passenger Cars &amp; Utility Vehicles</t>
+          <t>2/3 Wheelers</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3201.5</v>
+        <v>2484</v>
       </c>
       <c r="E63" t="n">
-        <v>3215</v>
+        <v>2514</v>
       </c>
       <c r="F63" t="n">
-        <v>3211.1</v>
+        <v>2501.45</v>
       </c>
       <c r="G63" t="n">
-        <v>3237.05</v>
+        <v>2958</v>
       </c>
       <c r="H63" t="n">
-        <v>1575</v>
+        <v>1873</v>
       </c>
       <c r="I63" t="n">
-        <v>1.098222146707656</v>
+        <v>16.02434077079107</v>
       </c>
       <c r="J63" t="n">
-        <v>-103.2698412698413</v>
+        <v>-32.62146289375334</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>INE038A01020</t>
+          <t>INE364U01010</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HINDALCO</t>
+          <t>ADANIGREEN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Aluminium</t>
+          <t>Power Generation</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>597.15</v>
+        <v>1039</v>
       </c>
       <c r="E64" t="n">
-        <v>599</v>
+        <v>1049.65</v>
       </c>
       <c r="F64" t="n">
-        <v>599</v>
+        <v>1046.5</v>
       </c>
       <c r="G64" t="n">
-        <v>772.65</v>
+        <v>2174.1</v>
       </c>
       <c r="H64" t="n">
-        <v>496.35</v>
+        <v>870.25</v>
       </c>
       <c r="I64" t="n">
-        <v>22.7140361094933</v>
+        <v>52.21010993054597</v>
       </c>
       <c r="J64" t="n">
-        <v>-20.30825022665457</v>
+        <v>-19.39097960356219</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>INE214T01019</t>
+          <t>INE066F01020</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LTIM</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Computers - Software &amp; Consulting</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5733.45</v>
+        <v>4203</v>
       </c>
       <c r="E65" t="n">
-        <v>5780</v>
+        <v>4240</v>
       </c>
       <c r="F65" t="n">
-        <v>5753.05</v>
+        <v>4235.8</v>
       </c>
       <c r="G65" t="n">
-        <v>6767.95</v>
+        <v>5674.75</v>
       </c>
       <c r="H65" t="n">
-        <v>4513.55</v>
+        <v>2763</v>
       </c>
       <c r="I65" t="n">
-        <v>15.28527840778966</v>
+        <v>25.93506321864399</v>
       </c>
       <c r="J65" t="n">
-        <v>-27.02750606507072</v>
+        <v>-52.11726384364821</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>INE029A01011</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>DLF</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Refineries &amp; Marketing</t>
+          <t>Residential Commercial Projects</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>295.85</v>
+        <v>828.2</v>
       </c>
       <c r="E66" t="n">
-        <v>296</v>
+        <v>834.6</v>
       </c>
       <c r="F66" t="n">
-        <v>296.9</v>
+        <v>835.4</v>
       </c>
       <c r="G66" t="n">
-        <v>376</v>
+        <v>967.6</v>
       </c>
       <c r="H66" t="n">
-        <v>222.55</v>
+        <v>687.05</v>
       </c>
       <c r="I66" t="n">
-        <v>21.31648936170212</v>
+        <v>14.40677966101695</v>
       </c>
       <c r="J66" t="n">
-        <v>-32.93641878229612</v>
+        <v>-20.54435630594573</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>INE917I01010</t>
+          <t>INE009A01021</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2/3 Wheelers</t>
+          <t>Computers - Software &amp; Consulting</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>9043.85</v>
+        <v>1939.1</v>
       </c>
       <c r="E67" t="n">
-        <v>9100</v>
+        <v>1952.95</v>
       </c>
       <c r="F67" t="n">
-        <v>9079.5</v>
+        <v>1957.85</v>
       </c>
       <c r="G67" t="n">
-        <v>12774</v>
+        <v>2006.45</v>
       </c>
       <c r="H67" t="n">
-        <v>6604</v>
+        <v>1358.35</v>
       </c>
       <c r="I67" t="n">
-        <v>29.20111163300454</v>
+        <v>3.356674724015058</v>
       </c>
       <c r="J67" t="n">
-        <v>-36.94503331314355</v>
+        <v>-42.75407663709648</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>INE423A01024</t>
+          <t>INE101A01026</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>M&amp;M</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Trading - Minerals</t>
+          <t>Passenger Cars &amp; Utility Vehicles</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2587.4</v>
+        <v>3180</v>
       </c>
       <c r="E68" t="n">
-        <v>2580</v>
+        <v>3215</v>
       </c>
       <c r="F68" t="n">
-        <v>2597.7</v>
+        <v>3211.1</v>
       </c>
       <c r="G68" t="n">
-        <v>3743.9</v>
+        <v>3237.05</v>
       </c>
       <c r="H68" t="n">
-        <v>2025</v>
+        <v>1575</v>
       </c>
       <c r="I68" t="n">
-        <v>30.89024813696947</v>
+        <v>1.76240712994857</v>
       </c>
       <c r="J68" t="n">
-        <v>-27.77283950617284</v>
+        <v>-101.9047619047619</v>
       </c>
     </row>
     <row r="69">
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1602.55</v>
+        <v>1594</v>
       </c>
       <c r="E69" t="n">
         <v>1615</v>
@@ -3063,325 +3063,325 @@
         <v>1021.35</v>
       </c>
       <c r="I69" t="n">
-        <v>9.918493535694212</v>
+        <v>10.3991006183249</v>
       </c>
       <c r="J69" t="n">
-        <v>-56.90507661428501</v>
+        <v>-56.06794928281197</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>INE079A01024</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cement &amp; Cement Products</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>547.4</v>
+        <v>793.3</v>
       </c>
       <c r="E70" t="n">
-        <v>551.8</v>
+        <v>801.2</v>
       </c>
       <c r="F70" t="n">
-        <v>549.85</v>
+        <v>801.2</v>
       </c>
       <c r="G70" t="n">
-        <v>706.95</v>
+        <v>912</v>
       </c>
       <c r="H70" t="n">
-        <v>453.05</v>
+        <v>600.65</v>
       </c>
       <c r="I70" t="n">
-        <v>22.56878138482213</v>
+        <v>13.01535087719299</v>
       </c>
       <c r="J70" t="n">
-        <v>-20.82551594746716</v>
+        <v>-32.07358694747357</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Residential Commercial Projects</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>831.65</v>
+        <v>483.95</v>
       </c>
       <c r="E71" t="n">
-        <v>834.6</v>
+        <v>490.25</v>
       </c>
       <c r="F71" t="n">
-        <v>835.4</v>
+        <v>489.05</v>
       </c>
       <c r="G71" t="n">
-        <v>967.6</v>
+        <v>528.5</v>
       </c>
       <c r="H71" t="n">
-        <v>687.05</v>
+        <v>399.35</v>
       </c>
       <c r="I71" t="n">
-        <v>14.05022736668045</v>
+        <v>8.429517502365186</v>
       </c>
       <c r="J71" t="n">
-        <v>-21.04650316570847</v>
+        <v>-21.18442469012144</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>INE018A01030</t>
+          <t>INE685A01028</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Civil Construction</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3695.15</v>
+        <v>3405</v>
       </c>
       <c r="E72" t="n">
-        <v>3708</v>
+        <v>3450</v>
       </c>
       <c r="F72" t="n">
-        <v>3713.5</v>
+        <v>3441.55</v>
       </c>
       <c r="G72" t="n">
-        <v>3963.5</v>
+        <v>3590.7</v>
       </c>
       <c r="H72" t="n">
-        <v>3175.05</v>
+        <v>2301.6</v>
       </c>
       <c r="I72" t="n">
-        <v>6.770531096253309</v>
+        <v>5.171693541649256</v>
       </c>
       <c r="J72" t="n">
-        <v>-16.38084439615124</v>
+        <v>-47.94056308654849</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>INE263A01024</t>
+          <t>INE047A01021</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>GRASIM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>295.1</v>
+        <v>2515</v>
       </c>
       <c r="E73" t="n">
-        <v>296.5</v>
+        <v>2541.2</v>
       </c>
       <c r="F73" t="n">
-        <v>296.8</v>
+        <v>2543.95</v>
       </c>
       <c r="G73" t="n">
-        <v>340.5</v>
+        <v>2877.75</v>
       </c>
       <c r="H73" t="n">
-        <v>171.75</v>
+        <v>2016.55</v>
       </c>
       <c r="I73" t="n">
-        <v>13.33333333333333</v>
+        <v>12.60533402832074</v>
       </c>
       <c r="J73" t="n">
-        <v>-71.81950509461427</v>
+        <v>-24.71795889018373</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>INE494B01023</t>
+          <t>INE399L01023</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TVSMOTOR</t>
+          <t>ATGL</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2/3 Wheelers</t>
+          <t>LPG/CNG/PNG/LNG Supplier</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2486.1</v>
+        <v>725.8</v>
       </c>
       <c r="E74" t="n">
-        <v>2514</v>
+        <v>734.5</v>
       </c>
       <c r="F74" t="n">
-        <v>2501.45</v>
+        <v>734.45</v>
       </c>
       <c r="G74" t="n">
-        <v>2958</v>
+        <v>1190</v>
       </c>
       <c r="H74" t="n">
-        <v>1873</v>
+        <v>545.75</v>
       </c>
       <c r="I74" t="n">
-        <v>15.95334685598378</v>
+        <v>39.00840336134454</v>
       </c>
       <c r="J74" t="n">
-        <v>-32.73358248798719</v>
+        <v>-32.99129638112688</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>INE121E01018</t>
+          <t>INE257A01026</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JSWENERGY</t>
+          <t>BHEL</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Power Generation</t>
+          <t>Heavy Electrical Equipment</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>637</v>
+        <v>229.99</v>
       </c>
       <c r="E75" t="n">
-        <v>642.4</v>
+        <v>233</v>
       </c>
       <c r="F75" t="n">
-        <v>641</v>
+        <v>232.74</v>
       </c>
       <c r="G75" t="n">
-        <v>804.9</v>
+        <v>335.35</v>
       </c>
       <c r="H75" t="n">
-        <v>407.8</v>
+        <v>191.85</v>
       </c>
       <c r="I75" t="n">
-        <v>20.85973412846316</v>
+        <v>31.41792157447443</v>
       </c>
       <c r="J75" t="n">
-        <v>-56.20402157920549</v>
+        <v>-19.88011467292156</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>INE854D01024</t>
+          <t>INE121E01018</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>UNITDSPR</t>
+          <t>JSWENERGY</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Breweries &amp; Distilleries</t>
+          <t>Power Generation</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1677.6</v>
+        <v>633</v>
       </c>
       <c r="E76" t="n">
-        <v>1700</v>
+        <v>642.4</v>
       </c>
       <c r="F76" t="n">
-        <v>1688.55</v>
+        <v>641</v>
       </c>
       <c r="G76" t="n">
-        <v>1700</v>
+        <v>804.9</v>
       </c>
       <c r="H76" t="n">
-        <v>1054.7</v>
+        <v>407.8</v>
       </c>
       <c r="I76" t="n">
-        <v>1.317647058823535</v>
+        <v>21.35669027208348</v>
       </c>
       <c r="J76" t="n">
-        <v>-59.0594481843178</v>
+        <v>-55.223148602256</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>INE118A01012</t>
+          <t>INE917I01010</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BAJAJHLDNG</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Holding Company</t>
+          <t>2/3 Wheelers</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>11837.5</v>
+        <v>8965</v>
       </c>
       <c r="E77" t="n">
-        <v>11937</v>
+        <v>9100</v>
       </c>
       <c r="F77" t="n">
-        <v>11918.95</v>
+        <v>9079.5</v>
       </c>
       <c r="G77" t="n">
-        <v>13238</v>
+        <v>12774</v>
       </c>
       <c r="H77" t="n">
-        <v>7659.95</v>
+        <v>6604</v>
       </c>
       <c r="I77" t="n">
-        <v>10.57939265750113</v>
+        <v>29.81838108658212</v>
       </c>
       <c r="J77" t="n">
-        <v>-54.5375622556283</v>
+        <v>-35.75105996365839</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>INE117A01022</t>
+          <t>INE003A01024</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>SIEMENS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3390,25 +3390,25 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6840.2</v>
+        <v>6610</v>
       </c>
       <c r="E78" t="n">
-        <v>6900</v>
+        <v>6720</v>
       </c>
       <c r="F78" t="n">
-        <v>6891.7</v>
+        <v>6698.5</v>
       </c>
       <c r="G78" t="n">
-        <v>9149.950000000001</v>
+        <v>8129.9</v>
       </c>
       <c r="H78" t="n">
-        <v>4340.3</v>
+        <v>3965</v>
       </c>
       <c r="I78" t="n">
-        <v>25.24330734047728</v>
+        <v>18.69518690266793</v>
       </c>
       <c r="J78" t="n">
-        <v>-57.59740110130635</v>
+        <v>-66.70870113493065</v>
       </c>
     </row>
     <row r="79">
@@ -3428,7 +3428,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>7363.95</v>
+        <v>7320</v>
       </c>
       <c r="E79" t="n">
         <v>7427.95</v>
@@ -3443,173 +3443,173 @@
         <v>5640</v>
       </c>
       <c r="I79" t="n">
-        <v>2.399602385685887</v>
+        <v>2.982107355864811</v>
       </c>
       <c r="J79" t="n">
-        <v>-30.56648936170212</v>
+        <v>-29.78723404255319</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>INE742F01042</t>
+          <t>INE423A01024</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Port &amp; Port services</t>
+          <t>Trading - Minerals</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1216</v>
+        <v>2562</v>
       </c>
       <c r="E80" t="n">
-        <v>1234.5</v>
+        <v>2580</v>
       </c>
       <c r="F80" t="n">
-        <v>1226</v>
+        <v>2597.7</v>
       </c>
       <c r="G80" t="n">
-        <v>1621.4</v>
+        <v>3743.9</v>
       </c>
       <c r="H80" t="n">
-        <v>995.65</v>
+        <v>2025</v>
       </c>
       <c r="I80" t="n">
-        <v>25.00308375477982</v>
+        <v>31.56868506103262</v>
       </c>
       <c r="J80" t="n">
-        <v>-22.13127102897605</v>
+        <v>-26.51851851851852</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>INE860A01027</t>
+          <t>INE646L01027</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>HCLTECH</t>
+          <t>INDIGO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Computers - Software &amp; Consulting</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1955.55</v>
+        <v>4472.5</v>
       </c>
       <c r="E81" t="n">
-        <v>1980</v>
+        <v>4563.95</v>
       </c>
       <c r="F81" t="n">
-        <v>1972.2</v>
+        <v>4537.75</v>
       </c>
       <c r="G81" t="n">
-        <v>1992.1</v>
+        <v>5035</v>
       </c>
       <c r="H81" t="n">
-        <v>1235</v>
+        <v>2847</v>
       </c>
       <c r="I81" t="n">
-        <v>1.834747251643992</v>
+        <v>11.17179741807348</v>
       </c>
       <c r="J81" t="n">
-        <v>-58.34412955465587</v>
+        <v>-57.09518791710573</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>INE047A01021</t>
+          <t>INE018A01030</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cement &amp; Cement Products</t>
+          <t>Civil Construction</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2518.85</v>
+        <v>3660</v>
       </c>
       <c r="E82" t="n">
-        <v>2541.2</v>
+        <v>3708</v>
       </c>
       <c r="F82" t="n">
-        <v>2543.95</v>
+        <v>3713.5</v>
       </c>
       <c r="G82" t="n">
-        <v>2877.75</v>
+        <v>3963.5</v>
       </c>
       <c r="H82" t="n">
-        <v>2016.55</v>
+        <v>3175.05</v>
       </c>
       <c r="I82" t="n">
-        <v>12.47154895317523</v>
+        <v>7.657373533493125</v>
       </c>
       <c r="J82" t="n">
-        <v>-24.90887902605936</v>
+        <v>-15.27377521613832</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>INE154A01025</t>
+          <t>INE038A01020</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>HINDALCO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Diversified FMCG</t>
+          <t>Aluminium</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>484</v>
+        <v>590.25</v>
       </c>
       <c r="E83" t="n">
-        <v>490.25</v>
+        <v>599</v>
       </c>
       <c r="F83" t="n">
-        <v>489.05</v>
+        <v>599</v>
       </c>
       <c r="G83" t="n">
-        <v>528.5</v>
+        <v>772.65</v>
       </c>
       <c r="H83" t="n">
-        <v>399.35</v>
+        <v>496.35</v>
       </c>
       <c r="I83" t="n">
-        <v>8.420056764427626</v>
+        <v>23.60706658901184</v>
       </c>
       <c r="J83" t="n">
-        <v>-21.19694503568298</v>
+        <v>-18.91810214566334</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>INE009A01021</t>
+          <t>INE860A01027</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>HCLTECH</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3618,25 +3618,25 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1936.75</v>
+        <v>1943</v>
       </c>
       <c r="E84" t="n">
-        <v>1952.95</v>
+        <v>1980</v>
       </c>
       <c r="F84" t="n">
-        <v>1957.85</v>
+        <v>1972.2</v>
       </c>
       <c r="G84" t="n">
-        <v>2006.45</v>
+        <v>1992.1</v>
       </c>
       <c r="H84" t="n">
-        <v>1358.35</v>
+        <v>1235</v>
       </c>
       <c r="I84" t="n">
-        <v>3.473797004659974</v>
+        <v>2.464735706038849</v>
       </c>
       <c r="J84" t="n">
-        <v>-42.58107262487577</v>
+        <v>-57.32793522267207</v>
       </c>
     </row>
     <row r="85">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1857.3</v>
+        <v>1848.65</v>
       </c>
       <c r="E85" t="n">
         <v>1878</v>
@@ -3671,21 +3671,21 @@
         <v>1287</v>
       </c>
       <c r="I85" t="n">
-        <v>5.256714362231232</v>
+        <v>5.697962098604832</v>
       </c>
       <c r="J85" t="n">
-        <v>-44.31235431235431</v>
+        <v>-43.64024864024864</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>INE003A01024</t>
+          <t>INE117A01022</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SIEMENS</t>
+          <t>ABB</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3694,150 +3694,150 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>6620</v>
+        <v>6782</v>
       </c>
       <c r="E86" t="n">
-        <v>6720</v>
+        <v>6900</v>
       </c>
       <c r="F86" t="n">
-        <v>6698.5</v>
+        <v>6891.7</v>
       </c>
       <c r="G86" t="n">
-        <v>8129.9</v>
+        <v>9149.950000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>3965</v>
+        <v>4340.3</v>
       </c>
       <c r="I86" t="n">
-        <v>18.57218415970676</v>
+        <v>25.87937639003492</v>
       </c>
       <c r="J86" t="n">
-        <v>-66.9609079445145</v>
+        <v>-56.25647996682256</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>INE010B01027</t>
+          <t>INE263A01024</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ZYDUSLIFE</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>978.85</v>
+        <v>291.95</v>
       </c>
       <c r="E87" t="n">
-        <v>992</v>
+        <v>296.5</v>
       </c>
       <c r="F87" t="n">
-        <v>990.75</v>
+        <v>296.8</v>
       </c>
       <c r="G87" t="n">
-        <v>1324.3</v>
+        <v>340.5</v>
       </c>
       <c r="H87" t="n">
-        <v>686</v>
+        <v>171.75</v>
       </c>
       <c r="I87" t="n">
-        <v>26.08547912104508</v>
+        <v>14.25844346549193</v>
       </c>
       <c r="J87" t="n">
-        <v>-42.68950437317785</v>
+        <v>-69.98544395924307</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE158A01026</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>HEROMOTOCO</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Computers - Software &amp; Consulting</t>
+          <t>2/3 Wheelers</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4122.85</v>
+        <v>4240.05</v>
       </c>
       <c r="E88" t="n">
-        <v>4179.95</v>
+        <v>4265.45</v>
       </c>
       <c r="F88" t="n">
-        <v>4175.75</v>
+        <v>4311.5</v>
       </c>
       <c r="G88" t="n">
-        <v>4592.25</v>
+        <v>6246.25</v>
       </c>
       <c r="H88" t="n">
-        <v>3591.5</v>
+        <v>3929.85</v>
       </c>
       <c r="I88" t="n">
-        <v>10.22156894768359</v>
+        <v>32.11847108264958</v>
       </c>
       <c r="J88" t="n">
-        <v>-14.79465404427121</v>
+        <v>-7.893431046986533</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>INE070A01015</t>
+          <t>INE361B01024</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SHREECEM</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Cement &amp; Cement Products</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>26339.6</v>
+        <v>6042</v>
       </c>
       <c r="E89" t="n">
-        <v>26850.95</v>
+        <v>6159</v>
       </c>
       <c r="F89" t="n">
-        <v>26689.9</v>
+        <v>6144.75</v>
       </c>
       <c r="G89" t="n">
-        <v>30737.75</v>
+        <v>6285.45</v>
       </c>
       <c r="H89" t="n">
-        <v>23500</v>
+        <v>3350</v>
       </c>
       <c r="I89" t="n">
-        <v>14.30862701401372</v>
+        <v>3.873231033577545</v>
       </c>
       <c r="J89" t="n">
-        <v>-12.08340425531914</v>
+        <v>-80.35820895522389</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>INE361B01024</t>
+          <t>INE089A01031</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>DRREDDY</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3846,291 +3846,291 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>6064</v>
+        <v>1351.15</v>
       </c>
       <c r="E90" t="n">
-        <v>6159</v>
+        <v>1375.05</v>
       </c>
       <c r="F90" t="n">
-        <v>6144.75</v>
+        <v>1375.05</v>
       </c>
       <c r="G90" t="n">
-        <v>6285.45</v>
+        <v>1421.49</v>
       </c>
       <c r="H90" t="n">
-        <v>3350</v>
+        <v>1104.13</v>
       </c>
       <c r="I90" t="n">
-        <v>3.523216317049692</v>
+        <v>4.948328866189697</v>
       </c>
       <c r="J90" t="n">
-        <v>-81.01492537313433</v>
+        <v>-22.37236557289449</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>INE646L01027</t>
+          <t>INE070A01015</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>INDIGO</t>
+          <t>SHREECEM</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4476.5</v>
+        <v>26200</v>
       </c>
       <c r="E91" t="n">
-        <v>4563.95</v>
+        <v>26850.95</v>
       </c>
       <c r="F91" t="n">
-        <v>4537.75</v>
+        <v>26689.9</v>
       </c>
       <c r="G91" t="n">
-        <v>5035</v>
+        <v>30737.75</v>
       </c>
       <c r="H91" t="n">
-        <v>2847</v>
+        <v>23500</v>
       </c>
       <c r="I91" t="n">
-        <v>11.09235352532274</v>
+        <v>14.76279168123887</v>
       </c>
       <c r="J91" t="n">
-        <v>-57.23568668774148</v>
+        <v>-11.48936170212766</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>INE765G01017</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ICICIGI</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>General Insurance</t>
+          <t>Computers - Software &amp; Consulting</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1806.75</v>
+        <v>4097</v>
       </c>
       <c r="E92" t="n">
-        <v>1842.5</v>
+        <v>4179.95</v>
       </c>
       <c r="F92" t="n">
-        <v>1832.9</v>
+        <v>4175.75</v>
       </c>
       <c r="G92" t="n">
-        <v>2301.9</v>
+        <v>4592.25</v>
       </c>
       <c r="H92" t="n">
-        <v>1353.5</v>
+        <v>3591.5</v>
       </c>
       <c r="I92" t="n">
-        <v>21.51049133324645</v>
+        <v>10.78447384179868</v>
       </c>
       <c r="J92" t="n">
-        <v>-33.48725526413003</v>
+        <v>-14.0748990672421</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>INE090A01021</t>
+          <t>INE010B01027</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>ZYDUSLIFE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Private Sector Bank</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1271.75</v>
+        <v>971.75</v>
       </c>
       <c r="E93" t="n">
-        <v>1286.2</v>
+        <v>992</v>
       </c>
       <c r="F93" t="n">
-        <v>1290.6</v>
+        <v>990.75</v>
       </c>
       <c r="G93" t="n">
-        <v>1362.35</v>
+        <v>1324.3</v>
       </c>
       <c r="H93" t="n">
-        <v>970.15</v>
+        <v>686</v>
       </c>
       <c r="I93" t="n">
-        <v>6.650273424597197</v>
+        <v>26.62161141735256</v>
       </c>
       <c r="J93" t="n">
-        <v>-31.08797608617225</v>
+        <v>-41.65451895043732</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>INE089A01031</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DRREDDY</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Private Sector Bank</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1352.85</v>
+        <v>1265.6</v>
       </c>
       <c r="E94" t="n">
-        <v>1375.05</v>
+        <v>1286.2</v>
       </c>
       <c r="F94" t="n">
-        <v>1375.05</v>
+        <v>1290.6</v>
       </c>
       <c r="G94" t="n">
-        <v>1421.49</v>
+        <v>1362.35</v>
       </c>
       <c r="H94" t="n">
-        <v>1104.13</v>
+        <v>970.15</v>
       </c>
       <c r="I94" t="n">
-        <v>4.828736044572955</v>
+        <v>7.101699269644365</v>
       </c>
       <c r="J94" t="n">
-        <v>-22.52633294992435</v>
+        <v>-30.45405349688192</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>INE758T01015</t>
+          <t>INE059A01026</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ZOMATO</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>E-Retail/ E-Commerce</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>279.9</v>
+        <v>1507.5</v>
       </c>
       <c r="E95" t="n">
-        <v>285</v>
+        <v>1539</v>
       </c>
       <c r="F95" t="n">
-        <v>284.6</v>
+        <v>1537.9</v>
       </c>
       <c r="G95" t="n">
-        <v>304.7</v>
+        <v>1702.05</v>
       </c>
       <c r="H95" t="n">
-        <v>121.6</v>
+        <v>1266.2</v>
       </c>
       <c r="I95" t="n">
-        <v>8.13915326550706</v>
+        <v>11.43033400898916</v>
       </c>
       <c r="J95" t="n">
-        <v>-130.1809210526316</v>
+        <v>-19.05702100773969</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>INE685A01028</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>TECHM</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Computers - Software &amp; Consulting</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3383.35</v>
+        <v>1690.5</v>
       </c>
       <c r="E96" t="n">
-        <v>3450</v>
+        <v>1712.2</v>
       </c>
       <c r="F96" t="n">
-        <v>3441.55</v>
+        <v>1726.95</v>
       </c>
       <c r="G96" t="n">
-        <v>3590.7</v>
+        <v>1807.7</v>
       </c>
       <c r="H96" t="n">
-        <v>2301.6</v>
+        <v>1162.95</v>
       </c>
       <c r="I96" t="n">
-        <v>5.774640042331577</v>
+        <v>6.483376666482272</v>
       </c>
       <c r="J96" t="n">
-        <v>-46.9999131039277</v>
+        <v>-45.36308525731974</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE742F01042</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TECHM</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Computers - Software &amp; Consulting</t>
+          <t>Port &amp; Port services</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1697</v>
+        <v>1197.8</v>
       </c>
       <c r="E97" t="n">
-        <v>1712.2</v>
+        <v>1234.5</v>
       </c>
       <c r="F97" t="n">
-        <v>1726.95</v>
+        <v>1226</v>
       </c>
       <c r="G97" t="n">
-        <v>1807.7</v>
+        <v>1621.4</v>
       </c>
       <c r="H97" t="n">
-        <v>1162.95</v>
+        <v>995.65</v>
       </c>
       <c r="I97" t="n">
-        <v>6.123803728494774</v>
+        <v>26.12557049463427</v>
       </c>
       <c r="J97" t="n">
-        <v>-45.92200868481017</v>
+        <v>-20.30331943956209</v>
       </c>
     </row>
     <row r="98">
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1760.6</v>
+        <v>1748.4</v>
       </c>
       <c r="E98" t="n">
         <v>1791</v>
@@ -4165,124 +4165,124 @@
         <v>1363.55</v>
       </c>
       <c r="I98" t="n">
-        <v>6.351063829787239</v>
+        <v>6.999999999999996</v>
       </c>
       <c r="J98" t="n">
-        <v>-29.11884419346558</v>
+        <v>-28.22412086098787</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>INE059A01026</t>
+          <t>INE075A01022</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>WIPRO</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Computers - Software &amp; Consulting</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1508</v>
+        <v>295.2</v>
       </c>
       <c r="E99" t="n">
-        <v>1539</v>
+        <v>303.3</v>
       </c>
       <c r="F99" t="n">
-        <v>1537.9</v>
+        <v>303.8</v>
       </c>
       <c r="G99" t="n">
-        <v>1702.05</v>
+        <v>320</v>
       </c>
       <c r="H99" t="n">
-        <v>1266.2</v>
+        <v>208.5</v>
       </c>
       <c r="I99" t="n">
-        <v>11.40095766869363</v>
+        <v>7.750000000000003</v>
       </c>
       <c r="J99" t="n">
-        <v>-19.0965092402464</v>
+        <v>-41.58273381294963</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>INE158A01026</t>
+          <t>INE118A01012</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>HEROMOTOCO</t>
+          <t>BAJAJHLDNG</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2/3 Wheelers</t>
+          <t>Holding Company</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4224.65</v>
+        <v>11562</v>
       </c>
       <c r="E100" t="n">
-        <v>4265.45</v>
+        <v>11937</v>
       </c>
       <c r="F100" t="n">
-        <v>4311.5</v>
+        <v>11918.95</v>
       </c>
       <c r="G100" t="n">
-        <v>6246.25</v>
+        <v>13238</v>
       </c>
       <c r="H100" t="n">
-        <v>3929.85</v>
+        <v>7659.95</v>
       </c>
       <c r="I100" t="n">
-        <v>32.36501901140685</v>
+        <v>12.66052273757365</v>
       </c>
       <c r="J100" t="n">
-        <v>-7.501558583660946</v>
+        <v>-50.94093303481093</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>INE075A01022</t>
+          <t>INE758T01015</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>ZOMATO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Computers - Software &amp; Consulting</t>
+          <t>E-Retail/ E-Commerce</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>295.95</v>
+        <v>272.55</v>
       </c>
       <c r="E101" t="n">
-        <v>303.3</v>
+        <v>285</v>
       </c>
       <c r="F101" t="n">
-        <v>303.8</v>
+        <v>284.6</v>
       </c>
       <c r="G101" t="n">
-        <v>320</v>
+        <v>304.7</v>
       </c>
       <c r="H101" t="n">
-        <v>208.5</v>
+        <v>121.6</v>
       </c>
       <c r="I101" t="n">
-        <v>7.515625000000003</v>
+        <v>10.55136199540531</v>
       </c>
       <c r="J101" t="n">
-        <v>-41.94244604316546</v>
+        <v>-124.1365131578948</v>
       </c>
     </row>
   </sheetData>
